--- a/Documentação/Documentos/Utils/Referencias Bibliograficas.xlsx
+++ b/Documentação/Documentos/Utils/Referencias Bibliograficas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>C#</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>ERM</t>
-  </si>
-  <si>
-    <t>Inteligencia artificial </t>
   </si>
 </sst>
 </file>
@@ -135,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -145,10 +142,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -177,10 +170,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C12"/>
+  <dimension ref="B1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -218,13 +211,13 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -236,13 +229,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1"/>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1"/>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -254,13 +247,8 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1"/>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Documentação/Documentos/Utils/Referencias Bibliograficas.xlsx
+++ b/Documentação/Documentos/Utils/Referencias Bibliograficas.xlsx
@@ -239,9 +239,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1"/>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
